--- a/지텔프/D3.xlsx
+++ b/지텔프/D3.xlsx
@@ -5,7 +5,7 @@
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JC\Desktop\Git_repo\TIL\지탤프\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\내 드라이브\취춘\지텔프\단어\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
@@ -19,25 +19,769 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="252">
+  <x:si>
+    <x:t>defiance</x:t>
+  </x:si>
+  <x:si>
+    <x:t>admission</x:t>
+  </x:si>
+  <x:si>
+    <x:t>guideline</x:t>
+  </x:si>
+  <x:si>
+    <x:t>move toward, reach</x:t>
+  </x:si>
+  <x:si>
+    <x:t>condition, situation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>compress, squash</x:t>
+  </x:si>
+  <x:si>
+    <x:t>undergo, experience</x:t>
+  </x:si>
+  <x:si>
+    <x:t>position, prestige</x:t>
+  </x:si>
+  <x:si>
+    <x:t>defeat, vanquish</x:t>
+  </x:si>
+  <x:si>
+    <x:t>호환이 되는, 양립될 수 있는</x:t>
+  </x:si>
+  <x:si>
+    <x:t>overcome, surmount</x:t>
+  </x:si>
+  <x:si>
+    <x:t>demonstration, disapproval</x:t>
+  </x:si>
+  <x:si>
+    <x:t>modern, current, present</x:t>
+  </x:si>
+  <x:si>
+    <x:t>concurrent, simultaneous</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기념, 축하</x:t>
+  </x:si>
+  <x:si>
+    <x:t>파괴하다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>phase</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결정적으로</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포획, 체포</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cause</x:t>
+  </x:si>
+  <x:si>
+    <x:t>escape</x:t>
+  </x:si>
+  <x:si>
+    <x:t>죄인, 기결수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>접근, 방법</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마침내, 결국</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내려오다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문명화하다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>empire</x:t>
+  </x:si>
+  <x:si>
+    <x:t>탈출, 도피</x:t>
+  </x:si>
+  <x:si>
+    <x:t>충돌하다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ruin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>표현하다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대피, 철수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지배하다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수행하다, 실행하다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>term</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정복자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제국</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전투</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강요하다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>후손, 자손</x:t>
+  </x:si>
+  <x:si>
+    <x:t>existence</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발행하다, 발표하다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>순간, 잠깐, 잠시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무시하다, 얕보다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(권리 등의) 침해</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고통받다, 시달리다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>거역하다, 반항하다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>flight, freedom</x:t>
+  </x:si>
+  <x:si>
+    <x:t>constitution</x:t>
+  </x:si>
+  <x:si>
+    <x:t>peer, fellow</x:t>
+  </x:si>
+  <x:si>
+    <x:t>decline, fade</x:t>
+  </x:si>
+  <x:si>
+    <x:t>현대의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경영진</x:t>
+  </x:si>
+  <x:si>
+    <x:t>충돌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>memorial</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(승인을 받고) 들어감, 가입, 입장, 입학, 입회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>resist, disobey, challenge</x:t>
+  </x:si>
+  <x:si>
+    <x:t>former</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유적, 폐허</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실행, 처형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대피시키다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>occur</x:t>
+  </x:si>
+  <x:si>
+    <x:t>동시대의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기간, 시기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>execute</x:t>
+  </x:si>
+  <x:si>
+    <x:t>protest</x:t>
+  </x:si>
+  <x:si>
+    <x:t>crush</x:t>
+  </x:si>
+  <x:si>
+    <x:t>defy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상황, 환경</x:t>
+  </x:si>
+  <x:si>
+    <x:t>involve</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구성, 헌법</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전투적인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시위, 항의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>invade</x:t>
+  </x:si>
+  <x:si>
+    <x:t>defiant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>period</x:t>
+  </x:si>
+  <x:si>
+    <x:t>intact</x:t>
+  </x:si>
+  <x:si>
+    <x:t>combat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>access</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구성하다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전의, 과거의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>descend</x:t>
+  </x:si>
+  <x:si>
+    <x:t>suffer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>battle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>박해하다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>victim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>침공, 침입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>통치, 규칙</x:t>
+  </x:si>
+  <x:si>
+    <x:t>compel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쟁점, 문제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>conquer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>collide</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방해, 저해</x:t>
+  </x:si>
+  <x:si>
+    <x:t>derive</x:t>
+  </x:si>
+  <x:si>
+    <x:t>exist</x:t>
+  </x:si>
+  <x:si>
+    <x:t>convict</x:t>
+  </x:si>
+  <x:si>
+    <x:t>동맹, 연합</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경시하다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rule</x:t>
+  </x:si>
+  <x:si>
+    <x:t>capture</x:t>
+  </x:si>
+  <x:si>
+    <x:t>moment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기념하다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>descendant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>publish, release</x:t>
+  </x:si>
+  <x:si>
+    <x:t>provoke, trigger</x:t>
+  </x:si>
+  <x:si>
+    <x:t>perform, carry out</x:t>
+  </x:si>
+  <x:si>
+    <x:t>disregard, ignore</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kill, put to death</x:t>
+  </x:si>
+  <x:si>
+    <x:t>previous, earlier</x:t>
+  </x:si>
+  <x:si>
+    <x:t>implement</x:t>
+  </x:si>
   <x:si>
     <x:t>정답이 되는 유의어</x:t>
   </x:si>
   <x:si>
+    <x:t>include, entail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>영단어</x:t>
+  </x:si>
+  <x:si>
     <x:t>뜻</x:t>
   </x:si>
   <x:si>
-    <x:t>영단어</x:t>
-  </x:si>
-  <x:si>
-    <x:t>번호</x:t>
+    <x:t>(장소, 집을) 비우다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>topic, matter, problem</x:t>
+  </x:si>
+  <x:si>
+    <x:t>separate, differentiate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>눌러 부수다, 뭉개다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reason, purpose, culprit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도전, 반항</x:t>
+  </x:si>
+  <x:si>
+    <x:t>영토, 영역</x:t>
+  </x:si>
+  <x:si>
+    <x:t>침략하다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지위, 신분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>instant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발생, 나타남</x:t>
+  </x:si>
+  <x:si>
+    <x:t>derived</x:t>
+  </x:si>
+  <x:si>
+    <x:t>반항적인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>wane</x:t>
+  </x:si>
+  <x:si>
+    <x:t>issue</x:t>
+  </x:si>
+  <x:si>
+    <x:t>status</x:t>
+  </x:si>
+  <x:si>
+    <x:t>crucial</x:t>
+  </x:si>
+  <x:si>
+    <x:t>처형하다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>종속의, 하급의, 하위의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>commemoration</x:t>
+  </x:si>
+  <x:si>
+    <x:t>assistant, aide</x:t>
+  </x:si>
+  <x:si>
+    <x:t>assert, insist</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(곤란 등을) 극복하다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>remove, empty</x:t>
+  </x:si>
+  <x:si>
+    <x:t>conquer, defeat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>inferior, lower</x:t>
+  </x:si>
+  <x:si>
+    <x:t>interfere, block, obstruct</x:t>
+  </x:si>
+  <x:si>
+    <x:t>outstanding, noticeable</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실제로</x:t>
+  </x:si>
+  <x:si>
+    <x:t>존재</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hinder</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하급자, 종속물</x:t>
+  </x:si>
+  <x:si>
+    <x:t>flee, evade</x:t>
+  </x:si>
+  <x:si>
+    <x:t>conquest</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도망치다, 탈출하다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>crucially</x:t>
+  </x:si>
+  <x:si>
+    <x:t>prominent</x:t>
+  </x:si>
+  <x:si>
+    <x:t>persecute</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유명한, 저명한</x:t>
+  </x:si>
+  <x:si>
+    <x:t>현저한, 두드러진</x:t>
+  </x:si>
+  <x:si>
+    <x:t>disprove</x:t>
+  </x:si>
+  <x:si>
+    <x:t>evacuate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>틀렸음을 입증하다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발생하다, 일어나다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결정적인, 중요한</x:t>
+  </x:si>
+  <x:si>
+    <x:t>occurrence</x:t>
+  </x:si>
+  <x:si>
+    <x:t>evacuation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>subordinate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>demonstrate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>항의하다, 시위하다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정복하다, 이기다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>territory</x:t>
+  </x:si>
+  <x:si>
+    <x:t>area, land</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주장하다, 단언하다</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">정복 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>기념물</x:t>
+  </x:si>
+  <x:si>
+    <x:t>executive</x:t>
+  </x:si>
+  <x:si>
+    <x:t>constitute</x:t>
+  </x:si>
+  <x:si>
+    <x:t>execution</x:t>
+  </x:si>
+  <x:si>
+    <x:t>eventually</x:t>
+  </x:si>
+  <x:si>
+    <x:t>smash, clash</x:t>
+  </x:si>
+  <x:si>
+    <x:t>withdraw, expel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>손상되지 않은, 온전한</x:t>
+  </x:si>
+  <x:si>
+    <x:t>attack, assault</x:t>
+  </x:si>
+  <x:si>
+    <x:t>establish, found</x:t>
+  </x:si>
+  <x:si>
+    <x:t>literally, really</x:t>
+  </x:si>
+  <x:si>
+    <x:t>invalidate, negate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>devastate, destroy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>finally, ultimately</x:t>
+  </x:si>
+  <x:si>
+    <x:t>prisoner, criminal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>undamaged, flawless</x:t>
+  </x:si>
+  <x:si>
+    <x:t>contemporary</x:t>
+  </x:si>
+  <x:si>
+    <x:t>civilization</x:t>
+  </x:si>
+  <x:si>
+    <x:t>happen, pass</x:t>
+  </x:si>
+  <x:si>
+    <x:t>form, compose</x:t>
+  </x:si>
+  <x:si>
+    <x:t>circumstance</x:t>
+  </x:si>
+  <x:si>
+    <x:t>trap, arrest</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fight, resist</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(진행 과정상의) 상황</x:t>
+  </x:si>
+  <x:si>
+    <x:t>elicit, acquire</x:t>
+  </x:si>
+  <x:si>
+    <x:t>force, obligate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>originate, stem</x:t>
+  </x:si>
+  <x:si>
+    <x:t>줄어들다, 시들해지다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제정하다, 설립하다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>진압하다, 억압하다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>붙잡다, 체포하다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>actually</x:t>
+  </x:si>
+  <x:si>
+    <x:t>싸우다, 투쟁하다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>분리하다, 차별하다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>describe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>combative</x:t>
+  </x:si>
+  <x:si>
+    <x:t>존재하다, 생존하다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>야기하다, 일으키다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>coalition</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방해하다, 저해하다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>alliance</x:t>
+  </x:si>
+  <x:si>
+    <x:t>원인, 목적, 이유</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hindrance</x:t>
+  </x:si>
+  <x:si>
+    <x:t>collision</x:t>
+  </x:si>
+  <x:si>
+    <x:t>invasion</x:t>
+  </x:si>
+  <x:si>
+    <x:t>civilize</x:t>
+  </x:si>
+  <x:si>
+    <x:t>segregate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발부하다, 지급하다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>얻다, 끌어내다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>approach</x:t>
+  </x:si>
+  <x:si>
+    <x:t>progress</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포함하다, 관련시키다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>근접하다, 다가가다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실행의, 행정의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>~에서 비롯되다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>distribute</x:t>
+  </x:si>
+  <x:si>
+    <x:t>infringement, violation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>downplay, undervalue</x:t>
+  </x:si>
+  <x:si>
+    <x:t>strengthen, support</x:t>
+  </x:si>
+  <x:si>
+    <x:t>important, vital</x:t>
+  </x:si>
+  <x:si>
+    <x:t>casualty, sufferer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>famous, renowned</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sentence, condemn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>celebrate, memorialize</x:t>
+  </x:si>
+  <x:si>
+    <x:t>significant, important</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단계, 주기, 과정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중요한, 중대한</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강화하다, 보강하다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>momentous</x:t>
+  </x:si>
+  <x:si>
+    <x:t>conqueror</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시행하다, 도구</x:t>
+  </x:si>
+  <x:si>
+    <x:t>동년배, 동기생</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유죄를 선고하다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>existing</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유래된, 파생된</x:t>
+  </x:si>
+  <x:si>
+    <x:t>commemorate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기존의, 현행의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>monument</x:t>
+  </x:si>
+  <x:si>
+    <x:t>compatible</x:t>
+  </x:si>
+  <x:si>
+    <x:t>희생자, 피해자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reinforce</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fonts count="6">
+  <x:fonts count="7">
     <x:font>
       <x:name val="맑은 고딕"/>
       <x:sz val="11"/>
@@ -68,13 +812,24 @@
       <x:sz val="11"/>
       <x:color rgb="ff000000"/>
     </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff333333"/>
+    </x:font>
   </x:fonts>
-  <x:fills count="2">
+  <x:fills count="3">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="gray125"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="ffffffff"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
     </x:fill>
   </x:fills>
   <x:borders count="1">
@@ -98,7 +853,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="6">
+  <x:cellXfs count="7">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -117,6 +872,9 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </x:xf>
   </x:cellXfs>
   <x:cellStyles count="1">
     <x:cellStyle name="표준" xfId="0" builtinId="0" iLevel="0"/>
@@ -127,6 +885,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -209,6 +968,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -243,6 +1003,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -287,6 +1048,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -330,6 +1092,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -414,6 +1177,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -434,6 +1198,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -464,6 +1229,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -831,8 +1597,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:D134"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="B4" activeCellId="0" sqref="B4:B4"/>
+    <x:sheetView tabSelected="1" topLeftCell="A94" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="C104" activeCellId="0" sqref="C104:C104"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
@@ -845,635 +1611,1228 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="4" t="s">
-        <x:v>3</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B1" s="1" t="s">
-        <x:v>2</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D1" s="1" t="s">
+        <x:v>114</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:4">
+      <x:c r="A2" s="5">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:4">
-      <x:c r="A2" s="5"/>
-      <x:c r="B2" s="2"/>
-      <x:c r="C2" s="2"/>
-      <x:c r="D2" s="2"/>
+      <x:c r="B2" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C2" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="D2" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="A3" s="5"/>
       <x:c r="B3" s="2"/>
-      <x:c r="C3" s="2"/>
-      <x:c r="D3" s="2"/>
+      <x:c r="C3" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="D3" s="2" t="s">
+        <x:v>132</x:v>
+      </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
       <x:c r="A4" s="5"/>
-      <x:c r="B4" s="2"/>
+      <x:c r="B4" s="2" t="s">
+        <x:v>174</x:v>
+      </x:c>
       <x:c r="C4" s="2"/>
-      <x:c r="D4" s="2"/>
+      <x:c r="D4" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="A5" s="5"/>
-      <x:c r="B5" s="2"/>
+      <x:c r="B5" s="2" t="s">
+        <x:v>172</x:v>
+      </x:c>
       <x:c r="C5" s="2"/>
-      <x:c r="D5" s="2"/>
+      <x:c r="D5" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
       <x:c r="A6" s="5"/>
       <x:c r="B6" s="2"/>
       <x:c r="C6" s="2"/>
-      <x:c r="D6" s="2"/>
+      <x:c r="D6" s="2" t="s">
+        <x:v>224</x:v>
+      </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
-      <x:c r="A7" s="5"/>
-      <x:c r="B7" s="2"/>
-      <x:c r="C7" s="2"/>
-      <x:c r="D7" s="2"/>
+      <x:c r="A7" s="5">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="D7" s="2" t="s">
+        <x:v>201</x:v>
+      </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
       <x:c r="A8" s="5"/>
       <x:c r="B8" s="2"/>
-      <x:c r="C8" s="2"/>
-      <x:c r="D8" s="2"/>
+      <x:c r="C8" s="2" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="D8" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
       <x:c r="A9" s="5"/>
       <x:c r="B9" s="2"/>
       <x:c r="C9" s="2"/>
-      <x:c r="D9" s="2"/>
+      <x:c r="D9" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
-      <x:c r="A10" s="5"/>
-      <x:c r="B10" s="2"/>
+      <x:c r="A10" s="5">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B10" s="2" t="s">
+        <x:v>188</x:v>
+      </x:c>
       <x:c r="C10" s="2"/>
-      <x:c r="D10" s="2"/>
+      <x:c r="D10" s="2" t="s">
+        <x:v>143</x:v>
+      </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
       <x:c r="A11" s="5"/>
-      <x:c r="B11" s="2"/>
+      <x:c r="B11" s="2" t="s">
+        <x:v>216</x:v>
+      </x:c>
       <x:c r="C11" s="2"/>
-      <x:c r="D11" s="2"/>
+      <x:c r="D11" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
     </x:row>
     <x:row r="12" spans="1:4">
-      <x:c r="A12" s="5"/>
-      <x:c r="B12" s="2"/>
-      <x:c r="C12" s="2"/>
-      <x:c r="D12" s="2"/>
+      <x:c r="A12" s="5">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B12" s="2" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="C12" s="2" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="D12" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
     </x:row>
     <x:row r="13" spans="1:4">
       <x:c r="A13" s="5"/>
       <x:c r="B13" s="2"/>
-      <x:c r="C13" s="2"/>
-      <x:c r="D13" s="2"/>
+      <x:c r="C13" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="D13" s="2" t="s">
+        <x:v>41</x:v>
+      </x:c>
     </x:row>
     <x:row r="14" spans="1:4">
       <x:c r="A14" s="5"/>
       <x:c r="B14" s="2"/>
-      <x:c r="C14" s="2"/>
-      <x:c r="D14" s="2"/>
+      <x:c r="C14" s="2" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="D14" s="2" t="s">
+        <x:v>218</x:v>
+      </x:c>
     </x:row>
     <x:row r="15" spans="1:4">
-      <x:c r="A15" s="5"/>
-      <x:c r="B15" s="2"/>
-      <x:c r="C15" s="2"/>
-      <x:c r="D15" s="2"/>
+      <x:c r="A15" s="5">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B15" s="2" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="D15" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
     </x:row>
     <x:row r="16" spans="1:4">
-      <x:c r="A16" s="5"/>
-      <x:c r="B16" s="2"/>
-      <x:c r="C16" s="2"/>
-      <x:c r="D16" s="2"/>
+      <x:c r="A16" s="5">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B16" s="2" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="D16" s="2" t="s">
+        <x:v>204</x:v>
+      </x:c>
     </x:row>
     <x:row r="17" spans="1:4">
-      <x:c r="A17" s="5"/>
-      <x:c r="B17" s="2"/>
-      <x:c r="C17" s="2"/>
-      <x:c r="D17" s="2"/>
+      <x:c r="A17" s="5">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B17" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="D17" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
     </x:row>
     <x:row r="18" spans="1:4">
       <x:c r="A18" s="5"/>
       <x:c r="B18" s="2"/>
-      <x:c r="C18" s="2"/>
-      <x:c r="D18" s="2"/>
+      <x:c r="C18" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="D18" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
     </x:row>
     <x:row r="19" spans="1:4">
       <x:c r="A19" s="5"/>
-      <x:c r="B19" s="2"/>
+      <x:c r="B19" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="C19" s="2"/>
-      <x:c r="D19" s="2"/>
+      <x:c r="D19" s="2" t="s">
+        <x:v>120</x:v>
+      </x:c>
     </x:row>
     <x:row r="20" spans="1:4">
       <x:c r="A20" s="5"/>
-      <x:c r="B20" s="2"/>
+      <x:c r="B20" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
       <x:c r="C20" s="2"/>
-      <x:c r="D20" s="2"/>
+      <x:c r="D20" s="2" t="s">
+        <x:v>127</x:v>
+      </x:c>
     </x:row>
     <x:row r="21" spans="1:4">
-      <x:c r="A21" s="5"/>
-      <x:c r="B21" s="2"/>
-      <x:c r="C21" s="2"/>
-      <x:c r="D21" s="2"/>
+      <x:c r="A21" s="5">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B21" s="2" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D21" s="2" t="s">
+        <x:v>223</x:v>
+      </x:c>
     </x:row>
     <x:row r="22" spans="1:4">
       <x:c r="A22" s="5"/>
       <x:c r="B22" s="2"/>
-      <x:c r="C22" s="2"/>
-      <x:c r="D22" s="2"/>
+      <x:c r="C22" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D22" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
     </x:row>
     <x:row r="23" spans="1:4">
-      <x:c r="A23" s="5"/>
-      <x:c r="B23" s="2"/>
-      <x:c r="C23" s="2"/>
-      <x:c r="D23" s="2"/>
+      <x:c r="A23" s="5">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="D23" s="2" t="s">
+        <x:v>208</x:v>
+      </x:c>
     </x:row>
     <x:row r="24" spans="1:4">
       <x:c r="A24" s="5"/>
       <x:c r="B24" s="2"/>
-      <x:c r="C24" s="2"/>
-      <x:c r="D24" s="2"/>
+      <x:c r="C24" s="2" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="D24" s="2" t="s">
+        <x:v>212</x:v>
+      </x:c>
     </x:row>
     <x:row r="25" spans="1:4">
-      <x:c r="A25" s="5"/>
-      <x:c r="B25" s="2"/>
-      <x:c r="C25" s="2"/>
-      <x:c r="D25" s="2"/>
+      <x:c r="A25" s="5">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B25" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D25" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
     </x:row>
     <x:row r="26" spans="1:4">
-      <x:c r="A26" s="5"/>
-      <x:c r="B26" s="2"/>
-      <x:c r="C26" s="2"/>
-      <x:c r="D26" s="2"/>
+      <x:c r="A26" s="5">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="D26" s="2" t="s">
+        <x:v>222</x:v>
+      </x:c>
     </x:row>
     <x:row r="27" spans="1:4">
-      <x:c r="A27" s="5"/>
-      <x:c r="B27" s="2"/>
-      <x:c r="C27" s="2"/>
-      <x:c r="D27" s="2"/>
+      <x:c r="A27" s="5">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D27" s="2" t="s">
+        <x:v>198</x:v>
+      </x:c>
     </x:row>
     <x:row r="28" spans="1:4">
-      <x:c r="A28" s="5"/>
-      <x:c r="B28" s="2"/>
-      <x:c r="C28" s="2"/>
-      <x:c r="D28" s="2"/>
+      <x:c r="A28" s="5">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="D28" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
     </x:row>
     <x:row r="29" spans="1:4">
       <x:c r="A29" s="5"/>
-      <x:c r="B29" s="2"/>
+      <x:c r="B29" s="2" t="s">
+        <x:v>214</x:v>
+      </x:c>
       <x:c r="C29" s="2"/>
-      <x:c r="D29" s="2"/>
+      <x:c r="D29" s="2" t="s">
+        <x:v>53</x:v>
+      </x:c>
     </x:row>
     <x:row r="30" spans="1:4">
-      <x:c r="A30" s="5"/>
-      <x:c r="B30" s="2"/>
-      <x:c r="C30" s="2"/>
-      <x:c r="D30" s="2"/>
+      <x:c r="A30" s="5">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="D30" s="2" t="s">
+        <x:v>38</x:v>
+      </x:c>
     </x:row>
     <x:row r="31" spans="1:4">
-      <x:c r="A31" s="5"/>
-      <x:c r="B31" s="2"/>
-      <x:c r="C31" s="2"/>
-      <x:c r="D31" s="2"/>
+      <x:c r="A31" s="5">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="D31" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
     </x:row>
     <x:row r="32" spans="1:4">
       <x:c r="A32" s="5"/>
       <x:c r="B32" s="2"/>
-      <x:c r="C32" s="2"/>
-      <x:c r="D32" s="2"/>
+      <x:c r="C32" s="2" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="D32" s="2" t="s">
+        <x:v>199</x:v>
+      </x:c>
     </x:row>
     <x:row r="33" spans="1:4">
       <x:c r="A33" s="5"/>
-      <x:c r="B33" s="2"/>
+      <x:c r="B33" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
       <x:c r="C33" s="2"/>
-      <x:c r="D33" s="2"/>
+      <x:c r="D33" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
     </x:row>
     <x:row r="34" spans="1:4">
-      <x:c r="A34" s="5"/>
-      <x:c r="B34" s="2"/>
-      <x:c r="C34" s="2"/>
-      <x:c r="D34" s="2"/>
+      <x:c r="A34" s="5">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B34" s="2" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="D34" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
     </x:row>
     <x:row r="35" spans="1:4">
       <x:c r="A35" s="5"/>
       <x:c r="B35" s="2"/>
-      <x:c r="C35" s="2"/>
-      <x:c r="D35" s="2"/>
+      <x:c r="C35" s="2" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="D35" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
     </x:row>
     <x:row r="36" spans="1:4">
       <x:c r="A36" s="5"/>
-      <x:c r="B36" s="2"/>
+      <x:c r="B36" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
       <x:c r="C36" s="2"/>
-      <x:c r="D36" s="2"/>
+      <x:c r="D36" s="2" t="s">
+        <x:v>122</x:v>
+      </x:c>
     </x:row>
     <x:row r="37" spans="1:4">
-      <x:c r="A37" s="5"/>
-      <x:c r="B37" s="2"/>
-      <x:c r="C37" s="2"/>
-      <x:c r="D37" s="2"/>
+      <x:c r="A37" s="5">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B37" s="2" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="D37" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
     </x:row>
     <x:row r="38" spans="1:4">
-      <x:c r="A38" s="5"/>
-      <x:c r="B38" s="2"/>
+      <x:c r="A38" s="5">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B38" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
       <x:c r="C38" s="2"/>
-      <x:c r="D38" s="2"/>
+      <x:c r="D38" s="2" t="s">
+        <x:v>207</x:v>
+      </x:c>
     </x:row>
     <x:row r="39" spans="1:4">
       <x:c r="A39" s="5"/>
-      <x:c r="B39" s="2"/>
+      <x:c r="B39" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
       <x:c r="C39" s="2"/>
-      <x:c r="D39" s="2"/>
+      <x:c r="D39" s="2" t="s">
+        <x:v>145</x:v>
+      </x:c>
     </x:row>
     <x:row r="40" spans="1:4">
       <x:c r="A40" s="5"/>
-      <x:c r="B40" s="2"/>
+      <x:c r="B40" s="2" t="s">
+        <x:v>244</x:v>
+      </x:c>
       <x:c r="C40" s="2"/>
-      <x:c r="D40" s="2"/>
+      <x:c r="D40" s="2" t="s">
+        <x:v>247</x:v>
+      </x:c>
     </x:row>
     <x:row r="41" spans="1:4">
-      <x:c r="A41" s="5"/>
-      <x:c r="B41" s="2"/>
-      <x:c r="C41" s="2"/>
-      <x:c r="D41" s="2"/>
+      <x:c r="A41" s="5">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B41" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C41" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="D41" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
     </x:row>
     <x:row r="42" spans="1:4">
-      <x:c r="A42" s="5"/>
-      <x:c r="B42" s="2"/>
-      <x:c r="C42" s="2"/>
-      <x:c r="D42" s="2"/>
+      <x:c r="A42" s="5">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B42" s="2" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="C42" s="2" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="D42" s="2" t="s">
+        <x:v>210</x:v>
+      </x:c>
     </x:row>
     <x:row r="43" spans="1:4">
       <x:c r="A43" s="5"/>
-      <x:c r="B43" s="2"/>
+      <x:c r="B43" s="2" t="s">
+        <x:v>213</x:v>
+      </x:c>
       <x:c r="C43" s="2"/>
-      <x:c r="D43" s="3"/>
+      <x:c r="D43" s="3" t="s">
+        <x:v>92</x:v>
+      </x:c>
     </x:row>
     <x:row r="44" spans="1:4">
-      <x:c r="A44" s="5"/>
-      <x:c r="B44" s="2"/>
-      <x:c r="C44" s="2"/>
-      <x:c r="D44" s="2"/>
+      <x:c r="A44" s="5">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B44" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="C44" s="2" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="D44" s="2" t="s">
+        <x:v>178</x:v>
+      </x:c>
     </x:row>
     <x:row r="45" spans="1:4">
-      <x:c r="A45" s="5"/>
-      <x:c r="B45" s="2"/>
-      <x:c r="C45" s="2"/>
-      <x:c r="D45" s="2"/>
+      <x:c r="A45" s="5">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B45" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="C45" s="2" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="D45" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
     </x:row>
     <x:row r="46" spans="1:4">
       <x:c r="A46" s="5"/>
-      <x:c r="B46" s="2"/>
+      <x:c r="B46" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
       <x:c r="C46" s="2"/>
-      <x:c r="D46" s="2"/>
+      <x:c r="D46" s="2" t="s">
+        <x:v>241</x:v>
+      </x:c>
     </x:row>
     <x:row r="47" spans="1:4">
-      <x:c r="A47" s="5"/>
-      <x:c r="B47" s="2"/>
-      <x:c r="C47" s="2"/>
-      <x:c r="D47" s="2"/>
+      <x:c r="A47" s="5">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B47" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="C47" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D47" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
     </x:row>
     <x:row r="48" spans="1:4">
       <x:c r="A48" s="5"/>
       <x:c r="B48" s="2"/>
-      <x:c r="C48" s="2"/>
-      <x:c r="D48" s="2"/>
+      <x:c r="C48" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D48" s="2" t="s">
+        <x:v>236</x:v>
+      </x:c>
     </x:row>
     <x:row r="49" spans="1:4">
-      <x:c r="A49" s="5"/>
-      <x:c r="B49" s="2"/>
-      <x:c r="C49" s="2"/>
-      <x:c r="D49" s="2"/>
-    </x:row>
-    <x:row r="50" spans="1:4">
-      <x:c r="A50" s="5"/>
-      <x:c r="B50" s="2"/>
-      <x:c r="C50" s="2"/>
-      <x:c r="D50" s="2"/>
+      <x:c r="A49" s="5">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B49" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C49" s="2" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="D49" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="4:4">
+      <x:c r="D50" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
     </x:row>
     <x:row r="51" spans="1:4">
-      <x:c r="A51" s="5"/>
-      <x:c r="B51" s="2"/>
-      <x:c r="C51" s="2"/>
-      <x:c r="D51" s="2"/>
+      <x:c r="A51" s="5">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B51" s="2" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="C51" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D51" s="2" t="s">
+        <x:v>123</x:v>
+      </x:c>
     </x:row>
     <x:row r="52" spans="1:4">
       <x:c r="A52" s="5"/>
       <x:c r="B52" s="2"/>
-      <x:c r="C52" s="2"/>
-      <x:c r="D52" s="2"/>
+      <x:c r="C52" s="2" t="s">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="D52" s="2" t="s">
+        <x:v>194</x:v>
+      </x:c>
     </x:row>
     <x:row r="53" spans="1:4">
-      <x:c r="A53" s="5"/>
-      <x:c r="B53" s="2"/>
-      <x:c r="C53" s="2"/>
-      <x:c r="D53" s="2"/>
+      <x:c r="A53" s="5">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B53" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C53" s="2" t="s">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="D53" s="2" t="s">
+        <x:v>250</x:v>
+      </x:c>
     </x:row>
     <x:row r="54" spans="1:4">
-      <x:c r="A54" s="5"/>
-      <x:c r="B54" s="2"/>
-      <x:c r="C54" s="2"/>
-      <x:c r="D54" s="2"/>
+      <x:c r="A54" s="5">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B54" s="2" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="C54" s="2" t="s">
+        <x:v>235</x:v>
+      </x:c>
+      <x:c r="D54" s="2" t="s">
+        <x:v>237</x:v>
+      </x:c>
     </x:row>
     <x:row r="55" spans="1:4">
-      <x:c r="A55" s="5"/>
-      <x:c r="B55" s="2"/>
-      <x:c r="C55" s="2"/>
-      <x:c r="D55" s="2"/>
+      <x:c r="A55" s="5">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B55" s="2" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="C55" s="2" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="D55" s="2" t="s">
+        <x:v>144</x:v>
+      </x:c>
     </x:row>
     <x:row r="56" spans="1:4">
-      <x:c r="A56" s="5"/>
-      <x:c r="B56" s="2"/>
-      <x:c r="C56" s="2"/>
-      <x:c r="D56" s="2"/>
+      <x:c r="A56" s="5">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B56" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="C56" s="2" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="D56" s="2" t="s">
+        <x:v>200</x:v>
+      </x:c>
     </x:row>
     <x:row r="57" spans="1:4">
       <x:c r="A57" s="5"/>
       <x:c r="B57" s="2"/>
-      <x:c r="C57" s="2"/>
-      <x:c r="D57" s="2"/>
+      <x:c r="C57" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D57" s="2" t="s">
+        <x:v>118</x:v>
+      </x:c>
     </x:row>
     <x:row r="58" spans="1:4">
-      <x:c r="A58" s="5"/>
-      <x:c r="B58" s="2"/>
-      <x:c r="C58" s="2"/>
-      <x:c r="D58" s="2"/>
+      <x:c r="A58" s="5">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B58" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="C58" s="2" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="D58" s="2" t="s">
+        <x:v>219</x:v>
+      </x:c>
     </x:row>
     <x:row r="59" spans="1:4">
       <x:c r="A59" s="5"/>
       <x:c r="B59" s="2"/>
-      <x:c r="C59" s="2"/>
-      <x:c r="D59" s="2"/>
+      <x:c r="C59" s="2" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="D59" s="2" t="s">
+        <x:v>225</x:v>
+      </x:c>
     </x:row>
     <x:row r="60" spans="1:4">
       <x:c r="A60" s="5"/>
-      <x:c r="B60" s="2"/>
+      <x:c r="B60" s="2" t="s">
+        <x:v>126</x:v>
+      </x:c>
       <x:c r="C60" s="2"/>
-      <x:c r="D60" s="2"/>
+      <x:c r="D60" s="2" t="s">
+        <x:v>245</x:v>
+      </x:c>
     </x:row>
     <x:row r="61" spans="1:4">
-      <x:c r="A61" s="5"/>
-      <x:c r="B61" s="2"/>
-      <x:c r="C61" s="2"/>
-      <x:c r="D61" s="2"/>
+      <x:c r="A61" s="5">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B61" s="2" t="s">
+        <x:v>251</x:v>
+      </x:c>
+      <x:c r="C61" s="2" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="D61" s="2" t="s">
+        <x:v>238</x:v>
+      </x:c>
     </x:row>
     <x:row r="62" spans="1:4">
-      <x:c r="A62" s="5"/>
-      <x:c r="B62" s="2"/>
-      <x:c r="C62" s="2"/>
-      <x:c r="D62" s="2"/>
+      <x:c r="A62" s="5">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B62" s="2" t="s">
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="C62" s="2" t="s">
+        <x:v>234</x:v>
+      </x:c>
+      <x:c r="D62" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
     </x:row>
     <x:row r="63" spans="1:4">
       <x:c r="A63" s="5"/>
-      <x:c r="B63" s="2"/>
+      <x:c r="B63" s="2" t="s">
+        <x:v>134</x:v>
+      </x:c>
       <x:c r="C63" s="2"/>
-      <x:c r="D63" s="2"/>
+      <x:c r="D63" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
     </x:row>
     <x:row r="64" spans="1:4">
-      <x:c r="A64" s="5"/>
-      <x:c r="B64" s="2"/>
-      <x:c r="C64" s="2"/>
-      <x:c r="D64" s="2"/>
+      <x:c r="A64" s="5">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B64" s="2" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="C64" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D64" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
     </x:row>
     <x:row r="65" spans="1:4">
-      <x:c r="A65" s="5"/>
-      <x:c r="B65" s="2"/>
-      <x:c r="C65" s="2"/>
-      <x:c r="D65" s="2"/>
+      <x:c r="A65" s="5">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B65" s="2" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="C65" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D65" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
     </x:row>
     <x:row r="66" spans="1:4">
       <x:c r="A66" s="5"/>
       <x:c r="B66" s="2"/>
-      <x:c r="C66" s="2"/>
-      <x:c r="D66" s="2"/>
+      <x:c r="C66" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D66" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
     </x:row>
     <x:row r="67" spans="1:4">
       <x:c r="A67" s="5"/>
       <x:c r="B67" s="2"/>
-      <x:c r="C67" s="2"/>
-      <x:c r="D67" s="2"/>
+      <x:c r="C67" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="D67" s="2" t="s">
+        <x:v>242</x:v>
+      </x:c>
     </x:row>
     <x:row r="68" spans="1:4">
       <x:c r="A68" s="5"/>
-      <x:c r="B68" s="2"/>
+      <x:c r="B68" s="2" t="s">
+        <x:v>249</x:v>
+      </x:c>
       <x:c r="C68" s="2"/>
-      <x:c r="D68" s="2"/>
+      <x:c r="D68" s="6" t="s">
+        <x:v>9</x:v>
+      </x:c>
     </x:row>
     <x:row r="69" spans="1:4">
-      <x:c r="A69" s="5"/>
-      <x:c r="B69" s="2"/>
-      <x:c r="C69" s="2"/>
-      <x:c r="D69" s="2"/>
+      <x:c r="A69" s="5">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B69" s="2" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="C69" s="2" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="D69" s="2" t="s">
+        <x:v>158</x:v>
+      </x:c>
     </x:row>
     <x:row r="70" spans="1:4">
-      <x:c r="A70" s="5"/>
-      <x:c r="B70" s="2"/>
+      <x:c r="A70" s="5">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B70" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
       <x:c r="C70" s="2"/>
-      <x:c r="D70" s="2"/>
+      <x:c r="D70" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
     </x:row>
     <x:row r="71" spans="1:4">
       <x:c r="A71" s="5"/>
-      <x:c r="B71" s="2"/>
+      <x:c r="B71" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
       <x:c r="C71" s="2"/>
-      <x:c r="D71" s="2"/>
+      <x:c r="D71" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
     </x:row>
     <x:row r="72" spans="1:4">
-      <x:c r="A72" s="5"/>
-      <x:c r="B72" s="2"/>
+      <x:c r="A72" s="5">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B72" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
       <x:c r="C72" s="2"/>
-      <x:c r="D72" s="2"/>
+      <x:c r="D72" s="2" t="s">
+        <x:v>36</x:v>
+      </x:c>
     </x:row>
     <x:row r="73" spans="1:4">
-      <x:c r="A73" s="5"/>
-      <x:c r="B73" s="2"/>
-      <x:c r="C73" s="2"/>
-      <x:c r="D73" s="2"/>
+      <x:c r="A73" s="5">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B73" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C73" s="2" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="D73" s="2" t="s">
+        <x:v>150</x:v>
+      </x:c>
     </x:row>
     <x:row r="74" spans="1:4">
       <x:c r="A74" s="5"/>
       <x:c r="B74" s="2"/>
-      <x:c r="C74" s="2"/>
-      <x:c r="D74" s="2"/>
+      <x:c r="C74" s="2" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D74" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
     </x:row>
     <x:row r="75" spans="1:4">
       <x:c r="A75" s="5"/>
-      <x:c r="B75" s="2"/>
+      <x:c r="B75" s="2" t="s">
+        <x:v>153</x:v>
+      </x:c>
       <x:c r="C75" s="2"/>
-      <x:c r="D75" s="2"/>
+      <x:c r="D75" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
     </x:row>
     <x:row r="76" spans="1:4">
-      <x:c r="A76" s="5"/>
-      <x:c r="B76" s="2"/>
-      <x:c r="C76" s="2"/>
-      <x:c r="D76" s="2"/>
+      <x:c r="A76" s="5">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B76" s="2" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="C76" s="2" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="D76" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
     </x:row>
     <x:row r="77" spans="1:4">
       <x:c r="A77" s="5"/>
       <x:c r="B77" s="2"/>
-      <x:c r="C77" s="2"/>
-      <x:c r="D77" s="2"/>
+      <x:c r="C77" s="2" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="D77" s="2" t="s">
+        <x:v>115</x:v>
+      </x:c>
     </x:row>
     <x:row r="78" spans="1:4">
       <x:c r="A78" s="5"/>
-      <x:c r="B78" s="2"/>
+      <x:c r="B78" s="2" t="s">
+        <x:v>162</x:v>
+      </x:c>
       <x:c r="C78" s="2"/>
-      <x:c r="D78" s="2"/>
+      <x:c r="D78" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
     </x:row>
     <x:row r="79" spans="1:4">
-      <x:c r="A79" s="5"/>
-      <x:c r="B79" s="2"/>
-      <x:c r="C79" s="2"/>
-      <x:c r="D79" s="2"/>
+      <x:c r="A79" s="5">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B79" s="2" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="C79" s="2" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="D79" s="2" t="s">
+        <x:v>121</x:v>
+      </x:c>
     </x:row>
     <x:row r="80" spans="1:4">
-      <x:c r="A80" s="5"/>
-      <x:c r="B80" s="2"/>
-      <x:c r="C80" s="2"/>
-      <x:c r="D80" s="2"/>
+      <x:c r="A80" s="5">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B80" s="2" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="C80" s="2" t="s">
+        <x:v>232</x:v>
+      </x:c>
+      <x:c r="D80" s="2" t="s">
+        <x:v>154</x:v>
+      </x:c>
     </x:row>
     <x:row r="81" spans="1:4">
       <x:c r="A81" s="5"/>
       <x:c r="B81" s="2"/>
-      <x:c r="C81" s="2"/>
-      <x:c r="D81" s="2"/>
+      <x:c r="C81" s="2" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="D81" s="2" t="s">
+        <x:v>155</x:v>
+      </x:c>
     </x:row>
     <x:row r="82" spans="1:4">
-      <x:c r="A82" s="5"/>
-      <x:c r="B82" s="2"/>
+      <x:c r="A82" s="5">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B82" s="2" t="s">
+        <x:v>98</x:v>
+      </x:c>
       <x:c r="C82" s="2"/>
-      <x:c r="D82" s="2"/>
+      <x:c r="D82" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
     </x:row>
     <x:row r="83" spans="1:4">
       <x:c r="A83" s="5"/>
       <x:c r="B83" s="2"/>
-      <x:c r="C83" s="2"/>
-      <x:c r="D83" s="2"/>
+      <x:c r="C83" s="2" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D83" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
     </x:row>
     <x:row r="84" spans="1:4">
-      <x:c r="A84" s="5"/>
-      <x:c r="B84" s="2"/>
-      <x:c r="C84" s="2"/>
-      <x:c r="D84" s="2"/>
+      <x:c r="A84" s="5">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B84" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C84" s="2" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="D84" s="2" t="s">
+        <x:v>165</x:v>
+      </x:c>
     </x:row>
     <x:row r="85" spans="1:4">
       <x:c r="A85" s="5"/>
       <x:c r="B85" s="2"/>
-      <x:c r="C85" s="2"/>
-      <x:c r="D85" s="2"/>
+      <x:c r="C85" s="2" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="D85" s="2" t="s">
+        <x:v>169</x:v>
+      </x:c>
     </x:row>
     <x:row r="86" spans="1:4">
       <x:c r="A86" s="5"/>
       <x:c r="B86" s="2"/>
-      <x:c r="C86" s="2"/>
-      <x:c r="D86" s="2"/>
+      <x:c r="C86" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D86" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
     </x:row>
     <x:row r="87" spans="1:4">
       <x:c r="A87" s="5"/>
-      <x:c r="B87" s="2"/>
+      <x:c r="B87" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
       <x:c r="C87" s="2"/>
-      <x:c r="D87" s="2"/>
+      <x:c r="D87" s="6" t="s">
+        <x:v>55</x:v>
+      </x:c>
     </x:row>
     <x:row r="88" spans="1:4">
-      <x:c r="A88" s="5"/>
-      <x:c r="B88" s="2"/>
-      <x:c r="C88" s="2"/>
-      <x:c r="D88" s="2"/>
+      <x:c r="A88" s="5">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B88" s="2" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="C88" s="2" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="D88" s="2" t="s">
+        <x:v>160</x:v>
+      </x:c>
     </x:row>
     <x:row r="89" spans="1:4">
       <x:c r="A89" s="5"/>
-      <x:c r="B89" s="2"/>
+      <x:c r="B89" s="2" t="s">
+        <x:v>151</x:v>
+      </x:c>
       <x:c r="C89" s="2"/>
-      <x:c r="D89" s="2"/>
+      <x:c r="D89" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
     </x:row>
     <x:row r="90" spans="1:4">
-      <x:c r="A90" s="5"/>
-      <x:c r="B90" s="2"/>
-      <x:c r="C90" s="2"/>
-      <x:c r="D90" s="2"/>
+      <x:c r="A90" s="5">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B90" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="C90" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D90" s="2" t="s">
+        <x:v>166</x:v>
+      </x:c>
     </x:row>
     <x:row r="91" spans="1:4">
       <x:c r="A91" s="5"/>
       <x:c r="B91" s="2"/>
-      <x:c r="C91" s="2"/>
-      <x:c r="D91" s="2"/>
+      <x:c r="C91" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D91" s="2" t="s">
+        <x:v>137</x:v>
+      </x:c>
     </x:row>
     <x:row r="92" spans="1:4">
       <x:c r="A92" s="5"/>
-      <x:c r="B92" s="2"/>
+      <x:c r="B92" s="2" t="s">
+        <x:v>149</x:v>
+      </x:c>
       <x:c r="C92" s="2"/>
-      <x:c r="D92" s="2"/>
+      <x:c r="D92" s="2" t="s">
+        <x:v>170</x:v>
+      </x:c>
     </x:row>
     <x:row r="93" spans="1:4">
       <x:c r="A93" s="5"/>
-      <x:c r="B93" s="2"/>
+      <x:c r="B93" s="2" t="s">
+        <x:v>240</x:v>
+      </x:c>
       <x:c r="C93" s="2"/>
-      <x:c r="D93" s="2"/>
+      <x:c r="D93" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
     </x:row>
     <x:row r="94" spans="1:4">
-      <x:c r="A94" s="5"/>
-      <x:c r="B94" s="2"/>
-      <x:c r="C94" s="2"/>
-      <x:c r="D94" s="2"/>
+      <x:c r="A94" s="5">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B94" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C94" s="2" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="D94" s="2" t="s">
+        <x:v>159</x:v>
+      </x:c>
     </x:row>
     <x:row r="95" spans="1:4">
       <x:c r="A95" s="5"/>
-      <x:c r="B95" s="2"/>
+      <x:c r="B95" s="2" t="s">
+        <x:v>161</x:v>
+      </x:c>
       <x:c r="C95" s="2"/>
-      <x:c r="D95" s="2"/>
+      <x:c r="D95" s="2" t="s">
+        <x:v>125</x:v>
+      </x:c>
     </x:row>
     <x:row r="96" spans="1:4">
-      <x:c r="A96" s="5"/>
-      <x:c r="B96" s="2"/>
-      <x:c r="C96" s="2"/>
-      <x:c r="D96" s="2"/>
+      <x:c r="A96" s="5">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B96" s="2" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="C96" s="2" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="D96" s="2" t="s">
+        <x:v>133</x:v>
+      </x:c>
     </x:row>
     <x:row r="97" spans="1:4">
       <x:c r="A97" s="5"/>
       <x:c r="B97" s="2"/>
-      <x:c r="C97" s="2"/>
-      <x:c r="D97" s="2"/>
+      <x:c r="C97" s="2" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="D97" s="2" t="s">
+        <x:v>147</x:v>
+      </x:c>
     </x:row>
     <x:row r="98" spans="1:4">
       <x:c r="A98" s="5"/>
       <x:c r="B98" s="2"/>
-      <x:c r="C98" s="2"/>
-      <x:c r="D98" s="2"/>
+      <x:c r="C98" s="2" t="s">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="D98" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
     </x:row>
     <x:row r="99" spans="1:4">
-      <x:c r="A99" s="5"/>
-      <x:c r="B99" s="2"/>
-      <x:c r="C99" s="2"/>
-      <x:c r="D99" s="2"/>
+      <x:c r="A99" s="5">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B99" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C99" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="D99" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
     </x:row>
     <x:row r="100" spans="1:4">
       <x:c r="A100" s="5"/>
       <x:c r="B100" s="2"/>
-      <x:c r="C100" s="2"/>
-      <x:c r="D100" s="2"/>
+      <x:c r="C100" s="2" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="D100" s="2" t="s">
+        <x:v>203</x:v>
+      </x:c>
     </x:row>
     <x:row r="101" spans="1:4">
       <x:c r="A101" s="5"/>
-      <x:c r="B101" s="2"/>
+      <x:c r="B101" s="2" t="s">
+        <x:v>206</x:v>
+      </x:c>
       <x:c r="C101" s="2"/>
-      <x:c r="D101" s="2"/>
+      <x:c r="D101" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
     </x:row>
     <x:row r="102" spans="1:4">
-      <x:c r="A102" s="5"/>
-      <x:c r="B102" s="2"/>
-      <x:c r="C102" s="2"/>
-      <x:c r="D102" s="2"/>
+      <x:c r="A102" s="5">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B102" s="2" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="C102" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D102" s="2" t="s">
+        <x:v>171</x:v>
+      </x:c>
     </x:row>
     <x:row r="103" spans="1:4">
-      <x:c r="A103" s="5"/>
-      <x:c r="B103" s="2"/>
-      <x:c r="C103" s="2"/>
-      <x:c r="D103" s="2"/>
+      <x:c r="A103" s="5">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B103" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="C103" s="2" t="s">
+        <x:v>233</x:v>
+      </x:c>
+      <x:c r="D103" s="2" t="s">
+        <x:v>243</x:v>
+      </x:c>
     </x:row>
     <x:row r="104" spans="1:4">
       <x:c r="A104" s="5"/>
       <x:c r="B104" s="2"/>
-      <x:c r="C104" s="2"/>
-      <x:c r="D104" s="2"/>
+      <x:c r="C104" s="2" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="D104" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
     </x:row>
     <x:row r="105" spans="1:4">
       <x:c r="A105" s="5"/>
